--- a/04_april/AprilDSR.xlsx
+++ b/04_april/AprilDSR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>Start April Month 2023</t>
   </si>
@@ -65,6 +65,51 @@
   </si>
   <si>
     <t>try to solve the issue in manage notification of notification receiver type of values stored as a integer not an array for notification r type</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>check code N working status N raise the PR</t>
+  </si>
+  <si>
+    <t>walkthrough the code of report abuse component &amp; manage-map component &amp;  had little discussion with ashwini N try to figure out the problem was there</t>
+  </si>
+  <si>
+    <t>WBX-4389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">applied different approches here N check there is working or not </t>
+  </si>
+  <si>
+    <t>check report abuse delete N get data is working or not doing regular report diferent user N deleted reports instantly data is updated N apply methods figure out the solution</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMDI-41 </t>
+  </si>
+  <si>
+    <t>start system N start server N check the pr is working or not</t>
+  </si>
+  <si>
+    <t>WBX-4388</t>
+  </si>
+  <si>
+    <t>worked on the issue where delete any data after not get update data in the unit module</t>
+  </si>
+  <si>
+    <t>all hand's meeting with sonia ma'am</t>
+  </si>
+  <si>
+    <t>WBX-4411</t>
+  </si>
+  <si>
+    <t>review prs</t>
+  </si>
+  <si>
+    <t>work on the notification title N notification type N checkbox is wrong checked try to fix them</t>
   </si>
 </sst>
 </file>
@@ -73,11 +118,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="181" formatCode="h:mm"/>
+    <numFmt numFmtId="177" formatCode="h:mm"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -118,6 +163,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -126,31 +224,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,75 +264,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +291,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -287,163 +332,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,6 +667,24 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,24 +704,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -689,15 +734,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -715,6 +751,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -726,152 +771,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -888,7 +933,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="4" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -900,7 +945,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="4" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -912,7 +957,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="4" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,26 +970,32 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="12" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="5" borderId="12" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1277,18 +1328,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:N24"/>
+  <dimension ref="A3:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.5714285714286"/>
-    <col min="3" max="3" width="10.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="10.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="11.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="16.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:11">
@@ -1333,7 +1385,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="26"/>
+      <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="5" t="s">
@@ -1355,7 +1407,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="27"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="9"/>
@@ -1371,7 +1423,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="28"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="13"/>
@@ -1387,7 +1439,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="29"/>
+      <c r="N11" s="31"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="17"/>
@@ -1441,7 +1493,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="26"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="5" t="s">
@@ -1463,7 +1515,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="27"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="9"/>
@@ -1479,7 +1531,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="28"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="13"/>
@@ -1495,7 +1547,7 @@
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
-      <c r="N17" s="29"/>
+      <c r="N17" s="31"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="17"/>
@@ -1649,26 +1701,453 @@
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
     </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="19">
+        <v>45020</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0.409722222222222</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0.409722222222222</v>
+      </c>
+      <c r="E30" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="24">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E33" s="24">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="19">
+        <v>45021</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="21">
+        <v>0.381944444444444</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E39" s="21">
+        <v>0.40625</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="21">
+        <v>0.40625</v>
+      </c>
+      <c r="E40" s="21">
+        <v>0.431944444444444</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="21">
+        <v>0.431944444444444</v>
+      </c>
+      <c r="E41" s="21">
+        <v>0.449305555555556</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="21">
+        <v>0.449305555555556</v>
+      </c>
+      <c r="E42" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="21">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E43" s="21">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="24">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="E44" s="24">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="45">
     <mergeCell ref="C8:N8"/>
     <mergeCell ref="C14:N14"/>
     <mergeCell ref="F20:N20"/>
     <mergeCell ref="F21:N21"/>
     <mergeCell ref="F22:N22"/>
+    <mergeCell ref="F27:N27"/>
+    <mergeCell ref="F28:N28"/>
+    <mergeCell ref="F29:N29"/>
+    <mergeCell ref="F32:N32"/>
+    <mergeCell ref="F37:N37"/>
+    <mergeCell ref="F38:N38"/>
+    <mergeCell ref="F39:N39"/>
+    <mergeCell ref="F40:N40"/>
+    <mergeCell ref="F41:N41"/>
+    <mergeCell ref="F42:N42"/>
+    <mergeCell ref="F43:N43"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A38:A45"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="B38:B45"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C44:C45"/>
     <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D44:D45"/>
     <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E44:E45"/>
     <mergeCell ref="D3:K4"/>
     <mergeCell ref="C9:N11"/>
     <mergeCell ref="C15:N17"/>
     <mergeCell ref="F23:N24"/>
+    <mergeCell ref="F30:N31"/>
+    <mergeCell ref="F33:N34"/>
+    <mergeCell ref="F44:N45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/04_april/AprilDSR.xlsx
+++ b/04_april/AprilDSR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
   <si>
     <t>Start April Month 2023</t>
   </si>
@@ -110,6 +110,102 @@
   </si>
   <si>
     <t>work on the notification title N notification type N checkbox is wrong checked try to fix them</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>start system N start server</t>
+  </si>
+  <si>
+    <t>reviewed ashwini's pr</t>
+  </si>
+  <si>
+    <t>walkthrough the  referral module N saw the code N go through ticket try to understand</t>
+  </si>
+  <si>
+    <t>WBX-4412(P)</t>
+  </si>
+  <si>
+    <t>WBX-4248</t>
+  </si>
+  <si>
+    <t>worked on the issue where saw the search referral instead of search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try to figure out solution of dropdown search using sender by N new user by N wbx amount </t>
+  </si>
+  <si>
+    <t>WBX-93</t>
+  </si>
+  <si>
+    <t>try to help of ashwini in send friend request using thunder client</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start system N start server N little bit checking pr of my </t>
+  </si>
+  <si>
+    <t>searching using sender amount N receiver amount in referral modules</t>
+  </si>
+  <si>
+    <t>reviewed pr of harshita N muskan N ashwini</t>
+  </si>
+  <si>
+    <t>figuring out the solution of dropdown searching using sender by N by new user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start system N start server N </t>
+  </si>
+  <si>
+    <t>WBX-4468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work on the search of report using email N sender wbx N receiver wbx amount </t>
+  </si>
+  <si>
+    <t>WBX4360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walkthrough the user module try to fix issue on delete N block operations </t>
+  </si>
+  <si>
+    <t>WBX-4360</t>
+  </si>
+  <si>
+    <t>check the working on ui for pagination on block N delete operation in user module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work on the pagination issue where edit action in user </t>
+  </si>
+  <si>
+    <t>work on the pagination issue where any action in annoucement module</t>
+  </si>
+  <si>
+    <t>WBX-4467</t>
+  </si>
+  <si>
+    <t>reviewed pr of harshita N muskan</t>
+  </si>
+  <si>
+    <t>work on the pagination where any action in community module N raise pr N solve extra bug</t>
+  </si>
+  <si>
+    <t>fix pagination issue while delete in special sale N program while edit delete searching</t>
+  </si>
+  <si>
+    <t>WBX-4391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work on the challenge type of pagination issue where copy N delete N edit N add N searching </t>
+  </si>
+  <si>
+    <t>reviewed pr</t>
+  </si>
+  <si>
+    <t>rebase the pr N work on the tracker pagination edit copy N delete fix effect code N with fix tracker type issue where add N edit</t>
   </si>
 </sst>
 </file>
@@ -118,11 +214,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="h:mm"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="181" formatCode="h:mm"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -163,6 +259,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -170,22 +274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -200,25 +290,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,19 +336,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,8 +365,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,7 +382,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,7 +428,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,31 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,43 +470,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,19 +506,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,19 +578,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,30 +776,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -734,6 +806,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -751,15 +832,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -768,155 +840,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -933,7 +1029,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="4" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -945,7 +1041,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="4" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,7 +1053,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="4" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,24 +1066,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="180" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="5" borderId="12" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="5" borderId="12" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1009,6 +1105,7 @@
     <xf numFmtId="20" fontId="2" fillId="4" borderId="15" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1328,13 +1425,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:N45"/>
+  <dimension ref="A3:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="Q105" sqref="Q105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -2101,8 +2198,1068 @@
       <c r="M45" s="25"/>
       <c r="N45" s="25"/>
     </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="19">
+        <v>45022</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="21">
+        <v>0.381944444444444</v>
+      </c>
+      <c r="E49" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E50" s="21">
+        <v>0.409722222222222</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="21">
+        <v>0.409722222222222</v>
+      </c>
+      <c r="E51" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="E52" s="21">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="21">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="E53" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="24">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E54" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="E56" s="21">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="19">
+        <v>45023</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="21">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="E60" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E61" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="E62" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="21">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E63" s="21">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="24">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="E64" s="24">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="28"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="6">
+        <v>45024</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="29"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="30"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="13"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="31"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="28"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="6">
+        <v>45025</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="29"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="9"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="30"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="31"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="19">
+        <v>45026</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="E81" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E82" s="21">
+        <v>0.409722222222222</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="21">
+        <v>0.409722222222222</v>
+      </c>
+      <c r="E83" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F83" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" s="24">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E84" s="24">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="19">
+        <v>45027</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D89" s="21">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="E89" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F89" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E90" s="21">
+        <v>0.409722222222222</v>
+      </c>
+      <c r="F90" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91" s="21">
+        <v>0.409722222222222</v>
+      </c>
+      <c r="E91" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D92" s="21">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E92" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="E93" s="21">
+        <v>0.145833333333333</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D94" s="21">
+        <v>0.145833333333333</v>
+      </c>
+      <c r="E94" s="21">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="25"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18"/>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="19">
+        <v>45028</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E98" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="F98" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="22"/>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="E99" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E100" s="21">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F100" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="22"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E101" s="21">
+        <v>0.177083333333333</v>
+      </c>
+      <c r="F101" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="25"/>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D102" s="24">
+        <v>0.177083333333333</v>
+      </c>
+      <c r="E102" s="24">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="19"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="107">
     <mergeCell ref="C8:N8"/>
     <mergeCell ref="C14:N14"/>
     <mergeCell ref="F20:N20"/>
@@ -2119,28 +3276,84 @@
     <mergeCell ref="F41:N41"/>
     <mergeCell ref="F42:N42"/>
     <mergeCell ref="F43:N43"/>
+    <mergeCell ref="F48:N48"/>
+    <mergeCell ref="F49:N49"/>
+    <mergeCell ref="F50:N50"/>
+    <mergeCell ref="F51:N51"/>
+    <mergeCell ref="F52:N52"/>
+    <mergeCell ref="F53:N53"/>
+    <mergeCell ref="F56:N56"/>
+    <mergeCell ref="F59:N59"/>
+    <mergeCell ref="F60:N60"/>
+    <mergeCell ref="F61:N61"/>
+    <mergeCell ref="F62:N62"/>
+    <mergeCell ref="F63:N63"/>
+    <mergeCell ref="C68:N68"/>
+    <mergeCell ref="C74:N74"/>
+    <mergeCell ref="F80:N80"/>
+    <mergeCell ref="F81:N81"/>
+    <mergeCell ref="F82:N82"/>
+    <mergeCell ref="F83:N83"/>
+    <mergeCell ref="F88:N88"/>
+    <mergeCell ref="F89:N89"/>
+    <mergeCell ref="F90:N90"/>
+    <mergeCell ref="F91:N91"/>
+    <mergeCell ref="F92:N92"/>
+    <mergeCell ref="F93:N93"/>
+    <mergeCell ref="F94:N94"/>
+    <mergeCell ref="F97:N97"/>
+    <mergeCell ref="F98:N98"/>
+    <mergeCell ref="F99:N99"/>
+    <mergeCell ref="F100:N100"/>
+    <mergeCell ref="F101:N101"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A28:A34"/>
     <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A98:A103"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B28:B34"/>
     <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B49:B56"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="B98:B103"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C102:C103"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D102:D103"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E102:E103"/>
     <mergeCell ref="D3:K4"/>
     <mergeCell ref="C9:N11"/>
     <mergeCell ref="C15:N17"/>
@@ -2148,6 +3361,12 @@
     <mergeCell ref="F30:N31"/>
     <mergeCell ref="F33:N34"/>
     <mergeCell ref="F44:N45"/>
+    <mergeCell ref="F54:N55"/>
+    <mergeCell ref="F64:N65"/>
+    <mergeCell ref="C69:N71"/>
+    <mergeCell ref="C75:N77"/>
+    <mergeCell ref="F84:N85"/>
+    <mergeCell ref="F102:N103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/04_april/AprilDSR.xlsx
+++ b/04_april/AprilDSR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="71">
   <si>
     <t>Start April Month 2023</t>
   </si>
@@ -206,6 +206,27 @@
   </si>
   <si>
     <t>rebase the pr N work on the tracker pagination edit copy N delete fix effect code N with fix tracker type issue where add N edit</t>
+  </si>
+  <si>
+    <t>Work on the pagination issue in food and activity and check the changes in the angular app</t>
+  </si>
+  <si>
+    <t>revewied pr of harshita</t>
+  </si>
+  <si>
+    <t>try to fix the issue in pagination in unit and unit type and merged the pr N fix on the issue when click on the same tab  page doesn't changed</t>
+  </si>
+  <si>
+    <t>On leave</t>
+  </si>
+  <si>
+    <t>work on the issue where pagination issue in click on the same tab page data do not update N page changed issue</t>
+  </si>
+  <si>
+    <t>WBX4248</t>
+  </si>
+  <si>
+    <t>work on the amount based serching in referral module N check searching is working or not N through the whereq solved</t>
   </si>
 </sst>
 </file>
@@ -213,10 +234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="181" formatCode="h:mm"/>
   </numFmts>
@@ -259,14 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -275,24 +288,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,9 +318,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,10 +378,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,37 +410,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,7 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,19 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +491,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,13 +569,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,61 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,25 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,11 +788,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,52 +818,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,15 +845,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,143 +903,137 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1106,6 +1127,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="180" fontId="4" fillId="5" borderId="12" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1425,10 +1452,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:N103"/>
+  <dimension ref="A3:N136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="Q105" sqref="Q105"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3258,8 +3285,500 @@
       <c r="M103" s="25"/>
       <c r="N103" s="25"/>
     </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18"/>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="19">
+        <v>45029</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E107" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="F107" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="22"/>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="19"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="E108" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="22"/>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="19"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" s="21">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E109" s="21">
+        <v>0.09375</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G109" s="22"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="22"/>
+      <c r="L109" s="22"/>
+      <c r="M109" s="22"/>
+      <c r="N109" s="22"/>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="19"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D110" s="24">
+        <v>0.09375</v>
+      </c>
+      <c r="E110" s="24">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="19"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="25"/>
+      <c r="M111" s="25"/>
+      <c r="N111" s="25"/>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="28"/>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B115" s="6">
+        <v>45030</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="29"/>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="9"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="30"/>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="13"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="16"/>
+      <c r="L117" s="16"/>
+      <c r="M117" s="16"/>
+      <c r="N117" s="31"/>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="18"/>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="19">
+        <v>45031</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D121" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E121" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="F121" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
+      <c r="J121" s="22"/>
+      <c r="K121" s="22"/>
+      <c r="L121" s="22"/>
+      <c r="M121" s="22"/>
+      <c r="N121" s="22"/>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="E122" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F122" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
+      <c r="J122" s="22"/>
+      <c r="K122" s="22"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="22"/>
+      <c r="N122" s="22"/>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="19"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D123" s="24">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E123" s="24">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="25"/>
+      <c r="K123" s="25"/>
+      <c r="L123" s="25"/>
+      <c r="M123" s="25"/>
+      <c r="N123" s="25"/>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" s="19"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="25"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="25"/>
+      <c r="L124" s="25"/>
+      <c r="M124" s="25"/>
+      <c r="N124" s="25"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="32"/>
+      <c r="B125" s="32"/>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="28"/>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="6">
+        <v>45032</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="29"/>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="9"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="30"/>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="13"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="16"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="16"/>
+      <c r="L130" s="16"/>
+      <c r="M130" s="16"/>
+      <c r="N130" s="31"/>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="19">
+        <v>45033</v>
+      </c>
+      <c r="C133" s="20"/>
+      <c r="D133" s="21">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="E133" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="22"/>
+      <c r="J133" s="22"/>
+      <c r="K133" s="22"/>
+      <c r="L133" s="22"/>
+      <c r="M133" s="22"/>
+      <c r="N133" s="22"/>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" s="19"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
+      <c r="J134" s="22"/>
+      <c r="K134" s="22"/>
+      <c r="L134" s="22"/>
+      <c r="M134" s="22"/>
+      <c r="N134" s="22"/>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" s="19"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="34"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
+      <c r="J135" s="25"/>
+      <c r="K135" s="25"/>
+      <c r="L135" s="25"/>
+      <c r="M135" s="25"/>
+      <c r="N135" s="25"/>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" s="19"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="25"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="25"/>
+      <c r="I136" s="25"/>
+      <c r="J136" s="25"/>
+      <c r="K136" s="25"/>
+      <c r="L136" s="25"/>
+      <c r="M136" s="25"/>
+      <c r="N136" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="140">
     <mergeCell ref="C8:N8"/>
     <mergeCell ref="C14:N14"/>
     <mergeCell ref="F20:N20"/>
@@ -3306,6 +3825,19 @@
     <mergeCell ref="F99:N99"/>
     <mergeCell ref="F100:N100"/>
     <mergeCell ref="F101:N101"/>
+    <mergeCell ref="F106:N106"/>
+    <mergeCell ref="F107:N107"/>
+    <mergeCell ref="F108:N108"/>
+    <mergeCell ref="F109:N109"/>
+    <mergeCell ref="C114:N114"/>
+    <mergeCell ref="F120:N120"/>
+    <mergeCell ref="F121:N121"/>
+    <mergeCell ref="F122:N122"/>
+    <mergeCell ref="C127:N127"/>
+    <mergeCell ref="F133:N133"/>
+    <mergeCell ref="F134:N134"/>
+    <mergeCell ref="F135:N135"/>
+    <mergeCell ref="F136:N136"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A21:A24"/>
@@ -3318,6 +3850,11 @@
     <mergeCell ref="A81:A85"/>
     <mergeCell ref="A89:A94"/>
     <mergeCell ref="A98:A103"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A133:A136"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B21:B24"/>
@@ -3330,6 +3867,11 @@
     <mergeCell ref="B81:B85"/>
     <mergeCell ref="B89:B94"/>
     <mergeCell ref="B98:B103"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B133:B136"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C33:C34"/>
@@ -3338,6 +3880,8 @@
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C84:C85"/>
     <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C123:C124"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="D33:D34"/>
@@ -3346,6 +3890,8 @@
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="D84:D85"/>
     <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D123:D124"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E33:E34"/>
@@ -3354,6 +3900,8 @@
     <mergeCell ref="E64:E65"/>
     <mergeCell ref="E84:E85"/>
     <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E123:E124"/>
     <mergeCell ref="D3:K4"/>
     <mergeCell ref="C9:N11"/>
     <mergeCell ref="C15:N17"/>
@@ -3367,6 +3915,10 @@
     <mergeCell ref="C75:N77"/>
     <mergeCell ref="F84:N85"/>
     <mergeCell ref="F102:N103"/>
+    <mergeCell ref="F110:N111"/>
+    <mergeCell ref="C115:N117"/>
+    <mergeCell ref="F123:N124"/>
+    <mergeCell ref="C128:N130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/04_april/AprilDSR.xlsx
+++ b/04_april/AprilDSR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="94">
   <si>
     <t>Start April Month 2023</t>
   </si>
@@ -227,6 +227,75 @@
   </si>
   <si>
     <t>work on the amount based serching in referral module N check searching is working or not N through the whereq solved</t>
+  </si>
+  <si>
+    <t>update the pr N rebase the pr N check</t>
+  </si>
+  <si>
+    <t>WBX-4494</t>
+  </si>
+  <si>
+    <t>WBX-4487</t>
+  </si>
+  <si>
+    <t>checked box opened textarea in notification if both checked both opened if email checked opened if web checked opened</t>
+  </si>
+  <si>
+    <t>WBX-4493</t>
+  </si>
+  <si>
+    <t>WBX-4453</t>
+  </si>
+  <si>
+    <t>apply translation on add-edit form N referral modules N tracker add edit form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update the code N raise the pr </t>
+  </si>
+  <si>
+    <t>applied translation on tracker formula add edit N manage tracker module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">applied translation on unit modules N unit- type </t>
+  </si>
+  <si>
+    <t>all hand's meeting with wbx team N binod N sonia</t>
+  </si>
+  <si>
+    <t>applied translation on activity module with create form controls N add placeholder getTranslation</t>
+  </si>
+  <si>
+    <t>update the code N update the pr N rebase the pr</t>
+  </si>
+  <si>
+    <t>applied translation on food modules N special sale details</t>
+  </si>
+  <si>
+    <t>applied translation on user-report module N tracker chart attribute N post module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">applied translation on edit profile N add post module custom error translation N change password </t>
+  </si>
+  <si>
+    <t>R&amp;D for showing preview image orientation in user add edit module</t>
+  </si>
+  <si>
+    <t>WBX-4439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tried different types of solution N tried them </t>
+  </si>
+  <si>
+    <t>Eid Holiday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">applied translation on login module N update the code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reviewed pr of harshita </t>
+  </si>
+  <si>
+    <t>applied translation on home module N sign up module</t>
   </si>
 </sst>
 </file>
@@ -234,11 +303,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="h:mm"/>
   </numFmts>
   <fonts count="23">
@@ -281,7 +350,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +394,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -303,23 +416,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,15 +441,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,54 +463,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,6 +473,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,7 +518,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +536,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,31 +560,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +590,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,31 +632,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,7 +650,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,37 +674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,6 +857,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -820,9 +931,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,199 +954,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1050,7 +1119,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1062,7 +1131,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1074,7 +1143,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,7 +1156,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1099,7 +1168,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="12" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="12" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1127,11 +1196,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="12" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1452,10 +1518,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:N136"/>
+  <dimension ref="A3:N189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3705,80 +3771,1012 @@
       <c r="M130" s="16"/>
       <c r="N130" s="31"/>
     </row>
-    <row r="133" spans="1:14">
-      <c r="A133" s="19" t="s">
+    <row r="134" spans="1:14">
+      <c r="A134" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="18"/>
+      <c r="N134" s="18"/>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B133" s="19">
+      <c r="B135" s="19">
         <v>45033</v>
       </c>
-      <c r="C133" s="20"/>
-      <c r="D133" s="21">
+      <c r="C135" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D135" s="21">
         <v>0.385416666666667</v>
       </c>
-      <c r="E133" s="21">
-        <v>0.402777777777778</v>
-      </c>
-      <c r="F133" s="22"/>
-      <c r="G133" s="22"/>
-      <c r="H133" s="22"/>
-      <c r="I133" s="22"/>
-      <c r="J133" s="22"/>
-      <c r="K133" s="22"/>
-      <c r="L133" s="22"/>
-      <c r="M133" s="22"/>
-      <c r="N133" s="22"/>
-    </row>
-    <row r="134" spans="1:14">
-      <c r="A134" s="19"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="22"/>
-      <c r="I134" s="22"/>
-      <c r="J134" s="22"/>
-      <c r="K134" s="22"/>
-      <c r="L134" s="22"/>
-      <c r="M134" s="22"/>
-      <c r="N134" s="22"/>
-    </row>
-    <row r="135" spans="1:14">
-      <c r="A135" s="19"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="34"/>
-      <c r="E135" s="34"/>
-      <c r="F135" s="25"/>
-      <c r="G135" s="25"/>
-      <c r="H135" s="25"/>
-      <c r="I135" s="25"/>
-      <c r="J135" s="25"/>
-      <c r="K135" s="25"/>
-      <c r="L135" s="25"/>
-      <c r="M135" s="25"/>
-      <c r="N135" s="25"/>
+      <c r="E135" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F135" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
+      <c r="J135" s="22"/>
+      <c r="K135" s="22"/>
+      <c r="L135" s="22"/>
+      <c r="M135" s="22"/>
+      <c r="N135" s="22"/>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="19"/>
       <c r="B136" s="19"/>
-      <c r="C136" s="33"/>
-      <c r="D136" s="34"/>
-      <c r="E136" s="34"/>
-      <c r="F136" s="25"/>
-      <c r="G136" s="25"/>
-      <c r="H136" s="25"/>
-      <c r="I136" s="25"/>
-      <c r="J136" s="25"/>
-      <c r="K136" s="25"/>
-      <c r="L136" s="25"/>
-      <c r="M136" s="25"/>
-      <c r="N136" s="25"/>
+      <c r="C136" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D136" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E136" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="F136" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="22"/>
+      <c r="H136" s="22"/>
+      <c r="I136" s="22"/>
+      <c r="J136" s="22"/>
+      <c r="K136" s="22"/>
+      <c r="L136" s="22"/>
+      <c r="M136" s="22"/>
+      <c r="N136" s="22"/>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" s="19"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D137" s="24">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="E137" s="24">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F137" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="25"/>
+      <c r="K137" s="25"/>
+      <c r="L137" s="25"/>
+      <c r="M137" s="25"/>
+      <c r="N137" s="25"/>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" s="19"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
+      <c r="J138" s="25"/>
+      <c r="K138" s="25"/>
+      <c r="L138" s="25"/>
+      <c r="M138" s="25"/>
+      <c r="N138" s="25"/>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" s="19"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D139" s="21">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E139" s="21">
+        <v>0.09375</v>
+      </c>
+      <c r="F139" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="25"/>
+      <c r="K139" s="25"/>
+      <c r="L139" s="25"/>
+      <c r="M139" s="25"/>
+      <c r="N139" s="25"/>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" s="19"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D140" s="21">
+        <v>0.09375</v>
+      </c>
+      <c r="E140" s="21">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G140" s="25"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
+      <c r="J140" s="25"/>
+      <c r="K140" s="25"/>
+      <c r="L140" s="25"/>
+      <c r="M140" s="25"/>
+      <c r="N140" s="25"/>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
+      <c r="M143" s="18"/>
+      <c r="N143" s="18"/>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B144" s="19">
+        <v>45034</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D144" s="21">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="E144" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F144" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G144" s="22"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="22"/>
+      <c r="J144" s="22"/>
+      <c r="K144" s="22"/>
+      <c r="L144" s="22"/>
+      <c r="M144" s="22"/>
+      <c r="N144" s="22"/>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" s="19"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D145" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E145" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="F145" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="22"/>
+      <c r="J145" s="22"/>
+      <c r="K145" s="22"/>
+      <c r="L145" s="22"/>
+      <c r="M145" s="22"/>
+      <c r="N145" s="22"/>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" s="19"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D146" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="E146" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F146" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G146" s="22"/>
+      <c r="H146" s="22"/>
+      <c r="I146" s="22"/>
+      <c r="J146" s="22"/>
+      <c r="K146" s="22"/>
+      <c r="L146" s="22"/>
+      <c r="M146" s="22"/>
+      <c r="N146" s="22"/>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" s="19"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D147" s="24">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E147" s="24">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="F147" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G147" s="25"/>
+      <c r="H147" s="25"/>
+      <c r="I147" s="25"/>
+      <c r="J147" s="25"/>
+      <c r="K147" s="25"/>
+      <c r="L147" s="25"/>
+      <c r="M147" s="25"/>
+      <c r="N147" s="25"/>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" s="19"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D148" s="24">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="E148" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="F148" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G148" s="25"/>
+      <c r="H148" s="25"/>
+      <c r="I148" s="25"/>
+      <c r="J148" s="25"/>
+      <c r="K148" s="25"/>
+      <c r="L148" s="25"/>
+      <c r="M148" s="25"/>
+      <c r="N148" s="25"/>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" s="19"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D149" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="E149" s="21">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F149" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="25"/>
+      <c r="K149" s="25"/>
+      <c r="L149" s="25"/>
+      <c r="M149" s="25"/>
+      <c r="N149" s="25"/>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="18"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="18"/>
+      <c r="N152" s="18"/>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B153" s="19">
+        <v>45035</v>
+      </c>
+      <c r="C153" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D153" s="21">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="E153" s="21">
+        <v>0.40625</v>
+      </c>
+      <c r="F153" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G153" s="22"/>
+      <c r="H153" s="22"/>
+      <c r="I153" s="22"/>
+      <c r="J153" s="22"/>
+      <c r="K153" s="22"/>
+      <c r="L153" s="22"/>
+      <c r="M153" s="22"/>
+      <c r="N153" s="22"/>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="19"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D154" s="21">
+        <v>0.40625</v>
+      </c>
+      <c r="E154" s="21">
+        <v>0.413194444444444</v>
+      </c>
+      <c r="F154" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="22"/>
+      <c r="H154" s="22"/>
+      <c r="I154" s="22"/>
+      <c r="J154" s="22"/>
+      <c r="K154" s="22"/>
+      <c r="L154" s="22"/>
+      <c r="M154" s="22"/>
+      <c r="N154" s="22"/>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D155" s="21">
+        <v>0.413194444444444</v>
+      </c>
+      <c r="E155" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F155" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="25"/>
+      <c r="K155" s="25"/>
+      <c r="L155" s="25"/>
+      <c r="M155" s="25"/>
+      <c r="N155" s="25"/>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" s="19"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D156" s="24">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E156" s="24">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F156" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="25"/>
+      <c r="K156" s="25"/>
+      <c r="L156" s="25"/>
+      <c r="M156" s="25"/>
+      <c r="N156" s="25"/>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" s="19"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="23"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="25"/>
+      <c r="K157" s="25"/>
+      <c r="L157" s="25"/>
+      <c r="M157" s="25"/>
+      <c r="N157" s="25"/>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G160" s="18"/>
+      <c r="H160" s="18"/>
+      <c r="I160" s="18"/>
+      <c r="J160" s="18"/>
+      <c r="K160" s="18"/>
+      <c r="L160" s="18"/>
+      <c r="M160" s="18"/>
+      <c r="N160" s="18"/>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B161" s="19">
+        <v>45036</v>
+      </c>
+      <c r="C161" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D161" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E161" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="F161" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" s="22"/>
+      <c r="H161" s="22"/>
+      <c r="I161" s="22"/>
+      <c r="J161" s="22"/>
+      <c r="K161" s="22"/>
+      <c r="L161" s="22"/>
+      <c r="M161" s="22"/>
+      <c r="N161" s="22"/>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162" s="19"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D162" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="E162" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F162" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G162" s="22"/>
+      <c r="H162" s="22"/>
+      <c r="I162" s="22"/>
+      <c r="J162" s="22"/>
+      <c r="K162" s="22"/>
+      <c r="L162" s="22"/>
+      <c r="M162" s="22"/>
+      <c r="N162" s="22"/>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163" s="19"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="24">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E163" s="24">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="F163" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G163" s="25"/>
+      <c r="H163" s="25"/>
+      <c r="I163" s="25"/>
+      <c r="J163" s="25"/>
+      <c r="K163" s="25"/>
+      <c r="L163" s="25"/>
+      <c r="M163" s="25"/>
+      <c r="N163" s="25"/>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164" s="19"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D164" s="24">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="E164" s="24">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F164" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G164" s="25"/>
+      <c r="H164" s="25"/>
+      <c r="I164" s="25"/>
+      <c r="J164" s="25"/>
+      <c r="K164" s="25"/>
+      <c r="L164" s="25"/>
+      <c r="M164" s="25"/>
+      <c r="N164" s="25"/>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="28"/>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B168" s="6">
+        <v>45037</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
+      <c r="L168" s="8"/>
+      <c r="M168" s="8"/>
+      <c r="N168" s="29"/>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169" s="9"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="30"/>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" s="13"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="16"/>
+      <c r="H170" s="16"/>
+      <c r="I170" s="16"/>
+      <c r="J170" s="16"/>
+      <c r="K170" s="16"/>
+      <c r="L170" s="16"/>
+      <c r="M170" s="16"/>
+      <c r="N170" s="31"/>
+    </row>
+    <row r="173" spans="1:14">
+      <c r="A173" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="28"/>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="6">
+        <v>45038</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8"/>
+      <c r="J174" s="8"/>
+      <c r="K174" s="8"/>
+      <c r="L174" s="8"/>
+      <c r="M174" s="8"/>
+      <c r="N174" s="29"/>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="A175" s="9"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="30"/>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="A176" s="13"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16"/>
+      <c r="H176" s="16"/>
+      <c r="I176" s="16"/>
+      <c r="J176" s="16"/>
+      <c r="K176" s="16"/>
+      <c r="L176" s="16"/>
+      <c r="M176" s="16"/>
+      <c r="N176" s="31"/>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="A177" s="17"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
+      <c r="I177" s="17"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="17"/>
+      <c r="L177" s="17"/>
+      <c r="M177" s="17"/>
+      <c r="N177" s="17"/>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="A178" s="17"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="17"/>
+      <c r="I178" s="17"/>
+      <c r="J178" s="17"/>
+      <c r="K178" s="17"/>
+      <c r="L178" s="17"/>
+      <c r="M178" s="17"/>
+      <c r="N178" s="17"/>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="A179" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="4"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="28"/>
+    </row>
+    <row r="180" spans="1:14">
+      <c r="A180" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" s="6">
+        <v>45039</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" s="8"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
+      <c r="H180" s="8"/>
+      <c r="I180" s="8"/>
+      <c r="J180" s="8"/>
+      <c r="K180" s="8"/>
+      <c r="L180" s="8"/>
+      <c r="M180" s="8"/>
+      <c r="N180" s="29"/>
+    </row>
+    <row r="181" spans="1:14">
+      <c r="A181" s="9"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="12"/>
+      <c r="L181" s="12"/>
+      <c r="M181" s="12"/>
+      <c r="N181" s="30"/>
+    </row>
+    <row r="182" spans="1:14">
+      <c r="A182" s="13"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="16"/>
+      <c r="G182" s="16"/>
+      <c r="H182" s="16"/>
+      <c r="I182" s="16"/>
+      <c r="J182" s="16"/>
+      <c r="K182" s="16"/>
+      <c r="L182" s="16"/>
+      <c r="M182" s="16"/>
+      <c r="N182" s="31"/>
+    </row>
+    <row r="185" spans="1:14">
+      <c r="A185" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G185" s="18"/>
+      <c r="H185" s="18"/>
+      <c r="I185" s="18"/>
+      <c r="J185" s="18"/>
+      <c r="K185" s="18"/>
+      <c r="L185" s="18"/>
+      <c r="M185" s="18"/>
+      <c r="N185" s="18"/>
+    </row>
+    <row r="186" spans="1:14">
+      <c r="A186" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" s="19">
+        <v>45040</v>
+      </c>
+      <c r="C186" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D186" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E186" s="21">
+        <v>0.399305555555556</v>
+      </c>
+      <c r="F186" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" s="22"/>
+      <c r="H186" s="22"/>
+      <c r="I186" s="22"/>
+      <c r="J186" s="22"/>
+      <c r="K186" s="22"/>
+      <c r="L186" s="22"/>
+      <c r="M186" s="22"/>
+      <c r="N186" s="22"/>
+    </row>
+    <row r="187" spans="1:14">
+      <c r="A187" s="19"/>
+      <c r="B187" s="19"/>
+      <c r="C187" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D187" s="21">
+        <v>0.399305555555556</v>
+      </c>
+      <c r="E187" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F187" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G187" s="22"/>
+      <c r="H187" s="22"/>
+      <c r="I187" s="22"/>
+      <c r="J187" s="22"/>
+      <c r="K187" s="22"/>
+      <c r="L187" s="22"/>
+      <c r="M187" s="22"/>
+      <c r="N187" s="22"/>
+    </row>
+    <row r="188" spans="1:14">
+      <c r="A188" s="19"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D188" s="21">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E188" s="24">
+        <v>0.09375</v>
+      </c>
+      <c r="F188" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G188" s="25"/>
+      <c r="H188" s="25"/>
+      <c r="I188" s="25"/>
+      <c r="J188" s="25"/>
+      <c r="K188" s="25"/>
+      <c r="L188" s="25"/>
+      <c r="M188" s="25"/>
+      <c r="N188" s="25"/>
+    </row>
+    <row r="189" spans="1:14">
+      <c r="A189" s="33"/>
+      <c r="B189" s="33"/>
+      <c r="C189" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D189" s="24">
+        <v>0.09375</v>
+      </c>
+      <c r="E189" s="24">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F189" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G189" s="25"/>
+      <c r="H189" s="25"/>
+      <c r="I189" s="25"/>
+      <c r="J189" s="25"/>
+      <c r="K189" s="25"/>
+      <c r="L189" s="25"/>
+      <c r="M189" s="25"/>
+      <c r="N189" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="140">
+  <mergeCells count="190">
     <mergeCell ref="C8:N8"/>
     <mergeCell ref="C14:N14"/>
     <mergeCell ref="F20:N20"/>
@@ -3834,10 +4832,35 @@
     <mergeCell ref="F121:N121"/>
     <mergeCell ref="F122:N122"/>
     <mergeCell ref="C127:N127"/>
-    <mergeCell ref="F133:N133"/>
     <mergeCell ref="F134:N134"/>
     <mergeCell ref="F135:N135"/>
     <mergeCell ref="F136:N136"/>
+    <mergeCell ref="F139:N139"/>
+    <mergeCell ref="F140:N140"/>
+    <mergeCell ref="F143:N143"/>
+    <mergeCell ref="F144:N144"/>
+    <mergeCell ref="F145:N145"/>
+    <mergeCell ref="F146:N146"/>
+    <mergeCell ref="F147:N147"/>
+    <mergeCell ref="F148:N148"/>
+    <mergeCell ref="F149:N149"/>
+    <mergeCell ref="F152:N152"/>
+    <mergeCell ref="F153:N153"/>
+    <mergeCell ref="F154:N154"/>
+    <mergeCell ref="F155:N155"/>
+    <mergeCell ref="F160:N160"/>
+    <mergeCell ref="F161:N161"/>
+    <mergeCell ref="F162:N162"/>
+    <mergeCell ref="F163:N163"/>
+    <mergeCell ref="F164:N164"/>
+    <mergeCell ref="C167:N167"/>
+    <mergeCell ref="C173:N173"/>
+    <mergeCell ref="C179:N179"/>
+    <mergeCell ref="F185:N185"/>
+    <mergeCell ref="F186:N186"/>
+    <mergeCell ref="F187:N187"/>
+    <mergeCell ref="F188:N188"/>
+    <mergeCell ref="F189:N189"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A21:A24"/>
@@ -3854,7 +4877,14 @@
     <mergeCell ref="A115:A117"/>
     <mergeCell ref="A121:A124"/>
     <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="A186:A189"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B21:B24"/>
@@ -3871,7 +4901,14 @@
     <mergeCell ref="B115:B117"/>
     <mergeCell ref="B121:B124"/>
     <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="B135:B140"/>
+    <mergeCell ref="B144:B149"/>
+    <mergeCell ref="B153:B157"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="B186:B189"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C33:C34"/>
@@ -3882,6 +4919,8 @@
     <mergeCell ref="C102:C103"/>
     <mergeCell ref="C110:C111"/>
     <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C156:C157"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="D33:D34"/>
@@ -3892,6 +4931,8 @@
     <mergeCell ref="D102:D103"/>
     <mergeCell ref="D110:D111"/>
     <mergeCell ref="D123:D124"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="D156:D157"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E33:E34"/>
@@ -3902,6 +4943,8 @@
     <mergeCell ref="E102:E103"/>
     <mergeCell ref="E110:E111"/>
     <mergeCell ref="E123:E124"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="E156:E157"/>
     <mergeCell ref="D3:K4"/>
     <mergeCell ref="C9:N11"/>
     <mergeCell ref="C15:N17"/>
@@ -3919,6 +4962,11 @@
     <mergeCell ref="C115:N117"/>
     <mergeCell ref="F123:N124"/>
     <mergeCell ref="C128:N130"/>
+    <mergeCell ref="F137:N138"/>
+    <mergeCell ref="F156:N157"/>
+    <mergeCell ref="C168:N170"/>
+    <mergeCell ref="C174:N176"/>
+    <mergeCell ref="C180:N182"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/04_april/AprilDSR.xlsx
+++ b/04_april/AprilDSR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="111">
   <si>
     <t>Start April Month 2023</t>
   </si>
@@ -296,6 +296,57 @@
   </si>
   <si>
     <t>applied translation on home module N sign up module</t>
+  </si>
+  <si>
+    <t>define getter data type and Update the code again request to review pr N merged code</t>
+  </si>
+  <si>
+    <t>WBX-4334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walkthrough the code and tried add modal </t>
+  </si>
+  <si>
+    <t>add delete all member pop up on teams module</t>
+  </si>
+  <si>
+    <t>WBX-4515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove validation of name description from add edit forms in user,tracker and achievement </t>
+  </si>
+  <si>
+    <t>remove validation of name description from add edit forms in challenges and teams and annoucement and community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reviewed pr </t>
+  </si>
+  <si>
+    <t>remove minLength and maxLength validation from teamName in team module</t>
+  </si>
+  <si>
+    <t>rebase the pr  and merged from faizan</t>
+  </si>
+  <si>
+    <t>remove validation from special sale and locale module and food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove validation activities and unit and custom field and challenge category </t>
+  </si>
+  <si>
+    <t>work on the pagination issue where 10 item there page no should not be there in chlg type</t>
+  </si>
+  <si>
+    <t>work on the remove validation from edit profile and coupon add edit form and store add edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed pr </t>
+  </si>
+  <si>
+    <t>work on the remove validation from the unit type and tracker type</t>
+  </si>
+  <si>
+    <t>work on the disable update button on merchant coupon categories manage-map locale-modal report abuse activities team</t>
   </si>
 </sst>
 </file>
@@ -303,11 +354,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="181" formatCode="h:mm"/>
   </numFmts>
   <fonts count="23">
@@ -349,38 +400,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,32 +417,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,10 +446,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,11 +493,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,7 +569,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,7 +635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,79 +653,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +677,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,13 +695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,19 +707,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,42 +910,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,11 +951,42 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,152 +1008,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1119,7 +1170,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1131,7 +1182,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1143,7 +1194,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,7 +1207,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1168,7 +1219,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="12" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="5" borderId="12" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,7 +1247,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="4" fillId="5" borderId="12" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1518,10 +1573,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:N189"/>
+  <dimension ref="A3:N233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="I200" sqref="I200"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4752,8 +4807,8 @@
       <c r="N188" s="25"/>
     </row>
     <row r="189" spans="1:14">
-      <c r="A189" s="33"/>
-      <c r="B189" s="33"/>
+      <c r="A189" s="19"/>
+      <c r="B189" s="19"/>
       <c r="C189" s="23" t="s">
         <v>76</v>
       </c>
@@ -4775,8 +4830,784 @@
       <c r="M189" s="25"/>
       <c r="N189" s="25"/>
     </row>
+    <row r="192" spans="1:14">
+      <c r="A192" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F192" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G192" s="18"/>
+      <c r="H192" s="18"/>
+      <c r="I192" s="18"/>
+      <c r="J192" s="18"/>
+      <c r="K192" s="18"/>
+      <c r="L192" s="18"/>
+      <c r="M192" s="18"/>
+      <c r="N192" s="18"/>
+    </row>
+    <row r="193" spans="1:14">
+      <c r="A193" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" s="19">
+        <v>45041</v>
+      </c>
+      <c r="C193" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D193" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E193" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="F193" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G193" s="22"/>
+      <c r="H193" s="22"/>
+      <c r="I193" s="22"/>
+      <c r="J193" s="22"/>
+      <c r="K193" s="22"/>
+      <c r="L193" s="22"/>
+      <c r="M193" s="22"/>
+      <c r="N193" s="22"/>
+    </row>
+    <row r="194" spans="1:14">
+      <c r="A194" s="19"/>
+      <c r="B194" s="19"/>
+      <c r="C194" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D194" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="E194" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F194" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G194" s="22"/>
+      <c r="H194" s="22"/>
+      <c r="I194" s="22"/>
+      <c r="J194" s="22"/>
+      <c r="K194" s="22"/>
+      <c r="L194" s="22"/>
+      <c r="M194" s="22"/>
+      <c r="N194" s="22"/>
+    </row>
+    <row r="195" spans="1:14">
+      <c r="A195" s="19"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D195" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E195" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F195" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G195" s="25"/>
+      <c r="H195" s="25"/>
+      <c r="I195" s="25"/>
+      <c r="J195" s="25"/>
+      <c r="K195" s="25"/>
+      <c r="L195" s="25"/>
+      <c r="M195" s="25"/>
+      <c r="N195" s="25"/>
+    </row>
+    <row r="196" spans="1:14">
+      <c r="A196" s="19"/>
+      <c r="B196" s="19"/>
+      <c r="C196" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D196" s="21">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E196" s="24">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F196" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G196" s="25"/>
+      <c r="H196" s="25"/>
+      <c r="I196" s="25"/>
+      <c r="J196" s="25"/>
+      <c r="K196" s="25"/>
+      <c r="L196" s="25"/>
+      <c r="M196" s="25"/>
+      <c r="N196" s="25"/>
+    </row>
+    <row r="199" spans="1:14">
+      <c r="A199" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B199" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G199" s="18"/>
+      <c r="H199" s="18"/>
+      <c r="I199" s="18"/>
+      <c r="J199" s="18"/>
+      <c r="K199" s="18"/>
+      <c r="L199" s="18"/>
+      <c r="M199" s="18"/>
+      <c r="N199" s="18"/>
+    </row>
+    <row r="200" spans="1:14">
+      <c r="A200" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" s="19">
+        <v>45042</v>
+      </c>
+      <c r="C200" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D200" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E200" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="F200" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" s="22"/>
+      <c r="H200" s="22"/>
+      <c r="I200" s="22"/>
+      <c r="J200" s="22"/>
+      <c r="K200" s="22"/>
+      <c r="L200" s="22"/>
+      <c r="M200" s="22"/>
+      <c r="N200" s="22"/>
+    </row>
+    <row r="201" spans="1:14">
+      <c r="A201" s="19"/>
+      <c r="B201" s="19"/>
+      <c r="C201" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D201" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="E201" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F201" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G201" s="22"/>
+      <c r="H201" s="22"/>
+      <c r="I201" s="22"/>
+      <c r="J201" s="22"/>
+      <c r="K201" s="22"/>
+      <c r="L201" s="22"/>
+      <c r="M201" s="22"/>
+      <c r="N201" s="22"/>
+    </row>
+    <row r="202" spans="1:14">
+      <c r="A202" s="19"/>
+      <c r="B202" s="19"/>
+      <c r="C202" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D202" s="33">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E202" s="24">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="F202" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G202" s="27"/>
+      <c r="H202" s="27"/>
+      <c r="I202" s="27"/>
+      <c r="J202" s="27"/>
+      <c r="K202" s="27"/>
+      <c r="L202" s="27"/>
+      <c r="M202" s="27"/>
+      <c r="N202" s="27"/>
+    </row>
+    <row r="203" spans="1:14">
+      <c r="A203" s="19"/>
+      <c r="B203" s="19"/>
+      <c r="C203" s="23"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="24"/>
+      <c r="F203" s="27"/>
+      <c r="G203" s="27"/>
+      <c r="H203" s="27"/>
+      <c r="I203" s="27"/>
+      <c r="J203" s="27"/>
+      <c r="K203" s="27"/>
+      <c r="L203" s="27"/>
+      <c r="M203" s="27"/>
+      <c r="N203" s="27"/>
+    </row>
+    <row r="204" spans="1:14">
+      <c r="A204" s="19"/>
+      <c r="B204" s="19"/>
+      <c r="C204" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D204" s="24">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E204" s="24">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F204" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G204" s="25"/>
+      <c r="H204" s="25"/>
+      <c r="I204" s="25"/>
+      <c r="J204" s="25"/>
+      <c r="K204" s="25"/>
+      <c r="L204" s="25"/>
+      <c r="M204" s="25"/>
+      <c r="N204" s="25"/>
+    </row>
+    <row r="207" spans="1:14">
+      <c r="A207" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B207" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F207" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G207" s="18"/>
+      <c r="H207" s="18"/>
+      <c r="I207" s="18"/>
+      <c r="J207" s="18"/>
+      <c r="K207" s="18"/>
+      <c r="L207" s="18"/>
+      <c r="M207" s="18"/>
+      <c r="N207" s="18"/>
+    </row>
+    <row r="208" spans="1:14">
+      <c r="A208" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B208" s="19">
+        <v>45043</v>
+      </c>
+      <c r="C208" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D208" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E208" s="21">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F208" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G208" s="22"/>
+      <c r="H208" s="22"/>
+      <c r="I208" s="22"/>
+      <c r="J208" s="22"/>
+      <c r="K208" s="22"/>
+      <c r="L208" s="22"/>
+      <c r="M208" s="22"/>
+      <c r="N208" s="22"/>
+    </row>
+    <row r="209" spans="1:14">
+      <c r="A209" s="19"/>
+      <c r="B209" s="19"/>
+      <c r="C209" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D209" s="21">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E209" s="21">
+        <v>0.430555555555556</v>
+      </c>
+      <c r="F209" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G209" s="22"/>
+      <c r="H209" s="22"/>
+      <c r="I209" s="22"/>
+      <c r="J209" s="22"/>
+      <c r="K209" s="22"/>
+      <c r="L209" s="22"/>
+      <c r="M209" s="22"/>
+      <c r="N209" s="22"/>
+    </row>
+    <row r="210" spans="1:14">
+      <c r="A210" s="19"/>
+      <c r="B210" s="19"/>
+      <c r="C210" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D210" s="21">
+        <v>0.430555555555556</v>
+      </c>
+      <c r="E210" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F210" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G210" s="25"/>
+      <c r="H210" s="25"/>
+      <c r="I210" s="25"/>
+      <c r="J210" s="25"/>
+      <c r="K210" s="25"/>
+      <c r="L210" s="25"/>
+      <c r="M210" s="25"/>
+      <c r="N210" s="25"/>
+    </row>
+    <row r="211" spans="1:14">
+      <c r="A211" s="19"/>
+      <c r="B211" s="19"/>
+      <c r="C211" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D211" s="21">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E211" s="24">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="F211" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G211" s="25"/>
+      <c r="H211" s="25"/>
+      <c r="I211" s="25"/>
+      <c r="J211" s="25"/>
+      <c r="K211" s="25"/>
+      <c r="L211" s="25"/>
+      <c r="M211" s="25"/>
+      <c r="N211" s="25"/>
+    </row>
+    <row r="212" spans="1:14">
+      <c r="A212" s="19"/>
+      <c r="B212" s="19"/>
+      <c r="C212" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D212" s="24">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="E212" s="24">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F212" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G212" s="25"/>
+      <c r="H212" s="25"/>
+      <c r="I212" s="25"/>
+      <c r="J212" s="25"/>
+      <c r="K212" s="25"/>
+      <c r="L212" s="25"/>
+      <c r="M212" s="25"/>
+      <c r="N212" s="25"/>
+    </row>
+    <row r="215" spans="1:14">
+      <c r="A215" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B215" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C215" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E215" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G215" s="18"/>
+      <c r="H215" s="18"/>
+      <c r="I215" s="18"/>
+      <c r="J215" s="18"/>
+      <c r="K215" s="18"/>
+      <c r="L215" s="18"/>
+      <c r="M215" s="18"/>
+      <c r="N215" s="18"/>
+    </row>
+    <row r="216" spans="1:14">
+      <c r="A216" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B216" s="19">
+        <v>45044</v>
+      </c>
+      <c r="C216" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D216" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E216" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="F216" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G216" s="22"/>
+      <c r="H216" s="22"/>
+      <c r="I216" s="22"/>
+      <c r="J216" s="22"/>
+      <c r="K216" s="22"/>
+      <c r="L216" s="22"/>
+      <c r="M216" s="22"/>
+      <c r="N216" s="22"/>
+    </row>
+    <row r="217" spans="1:14">
+      <c r="A217" s="19"/>
+      <c r="B217" s="19"/>
+      <c r="C217" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D217" s="21">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="E217" s="21">
+        <v>0.534722222222222</v>
+      </c>
+      <c r="F217" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G217" s="22"/>
+      <c r="H217" s="22"/>
+      <c r="I217" s="22"/>
+      <c r="J217" s="22"/>
+      <c r="K217" s="22"/>
+      <c r="L217" s="22"/>
+      <c r="M217" s="22"/>
+      <c r="N217" s="22"/>
+    </row>
+    <row r="218" spans="1:14">
+      <c r="A218" s="19"/>
+      <c r="B218" s="19"/>
+      <c r="C218" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D218" s="21">
+        <v>0.534722222222222</v>
+      </c>
+      <c r="E218" s="21">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F218" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G218" s="25"/>
+      <c r="H218" s="25"/>
+      <c r="I218" s="25"/>
+      <c r="J218" s="25"/>
+      <c r="K218" s="25"/>
+      <c r="L218" s="25"/>
+      <c r="M218" s="25"/>
+      <c r="N218" s="25"/>
+    </row>
+    <row r="219" spans="1:14">
+      <c r="A219" s="19"/>
+      <c r="B219" s="19"/>
+      <c r="C219" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D219" s="21">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E219" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="F219" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G219" s="22"/>
+      <c r="H219" s="22"/>
+      <c r="I219" s="22"/>
+      <c r="J219" s="22"/>
+      <c r="K219" s="22"/>
+      <c r="L219" s="22"/>
+      <c r="M219" s="22"/>
+      <c r="N219" s="22"/>
+    </row>
+    <row r="220" spans="1:14">
+      <c r="A220" s="19"/>
+      <c r="B220" s="19"/>
+      <c r="C220" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D220" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="E220" s="35">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F220" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G220" s="25"/>
+      <c r="H220" s="25"/>
+      <c r="I220" s="25"/>
+      <c r="J220" s="25"/>
+      <c r="K220" s="25"/>
+      <c r="L220" s="25"/>
+      <c r="M220" s="25"/>
+      <c r="N220" s="25"/>
+    </row>
+    <row r="221" spans="1:14">
+      <c r="A221" s="19"/>
+      <c r="B221" s="19"/>
+      <c r="C221" s="23"/>
+      <c r="D221" s="24"/>
+      <c r="E221" s="35"/>
+      <c r="F221" s="25"/>
+      <c r="G221" s="25"/>
+      <c r="H221" s="25"/>
+      <c r="I221" s="25"/>
+      <c r="J221" s="25"/>
+      <c r="K221" s="25"/>
+      <c r="L221" s="25"/>
+      <c r="M221" s="25"/>
+      <c r="N221" s="25"/>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="A224" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="4"/>
+      <c r="I224" s="4"/>
+      <c r="J224" s="4"/>
+      <c r="K224" s="4"/>
+      <c r="L224" s="4"/>
+      <c r="M224" s="4"/>
+      <c r="N224" s="28"/>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" s="6">
+        <v>45045</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D225" s="8"/>
+      <c r="E225" s="8"/>
+      <c r="F225" s="8"/>
+      <c r="G225" s="8"/>
+      <c r="H225" s="8"/>
+      <c r="I225" s="8"/>
+      <c r="J225" s="8"/>
+      <c r="K225" s="8"/>
+      <c r="L225" s="8"/>
+      <c r="M225" s="8"/>
+      <c r="N225" s="29"/>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="A226" s="9"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
+      <c r="G226" s="12"/>
+      <c r="H226" s="12"/>
+      <c r="I226" s="12"/>
+      <c r="J226" s="12"/>
+      <c r="K226" s="12"/>
+      <c r="L226" s="12"/>
+      <c r="M226" s="12"/>
+      <c r="N226" s="30"/>
+    </row>
+    <row r="227" spans="1:14">
+      <c r="A227" s="13"/>
+      <c r="B227" s="14"/>
+      <c r="C227" s="15"/>
+      <c r="D227" s="16"/>
+      <c r="E227" s="16"/>
+      <c r="F227" s="16"/>
+      <c r="G227" s="16"/>
+      <c r="H227" s="16"/>
+      <c r="I227" s="16"/>
+      <c r="J227" s="16"/>
+      <c r="K227" s="16"/>
+      <c r="L227" s="16"/>
+      <c r="M227" s="16"/>
+      <c r="N227" s="31"/>
+    </row>
+    <row r="228" spans="1:14">
+      <c r="A228" s="17"/>
+      <c r="B228" s="17"/>
+      <c r="C228" s="17"/>
+      <c r="D228" s="17"/>
+      <c r="E228" s="17"/>
+      <c r="F228" s="17"/>
+      <c r="G228" s="17"/>
+      <c r="H228" s="17"/>
+      <c r="I228" s="17"/>
+      <c r="J228" s="17"/>
+      <c r="K228" s="17"/>
+      <c r="L228" s="17"/>
+      <c r="M228" s="17"/>
+      <c r="N228" s="17"/>
+    </row>
+    <row r="229" spans="1:14">
+      <c r="A229" s="17"/>
+      <c r="B229" s="17"/>
+      <c r="C229" s="17"/>
+      <c r="D229" s="17"/>
+      <c r="E229" s="17"/>
+      <c r="F229" s="17"/>
+      <c r="G229" s="17"/>
+      <c r="H229" s="17"/>
+      <c r="I229" s="17"/>
+      <c r="J229" s="17"/>
+      <c r="K229" s="17"/>
+      <c r="L229" s="17"/>
+      <c r="M229" s="17"/>
+      <c r="N229" s="17"/>
+    </row>
+    <row r="230" spans="1:14">
+      <c r="A230" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+      <c r="H230" s="4"/>
+      <c r="I230" s="4"/>
+      <c r="J230" s="4"/>
+      <c r="K230" s="4"/>
+      <c r="L230" s="4"/>
+      <c r="M230" s="4"/>
+      <c r="N230" s="28"/>
+    </row>
+    <row r="231" spans="1:14">
+      <c r="A231" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" s="6">
+        <v>45046</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D231" s="8"/>
+      <c r="E231" s="8"/>
+      <c r="F231" s="8"/>
+      <c r="G231" s="8"/>
+      <c r="H231" s="8"/>
+      <c r="I231" s="8"/>
+      <c r="J231" s="8"/>
+      <c r="K231" s="8"/>
+      <c r="L231" s="8"/>
+      <c r="M231" s="8"/>
+      <c r="N231" s="29"/>
+    </row>
+    <row r="232" spans="1:14">
+      <c r="A232" s="9"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
+      <c r="F232" s="12"/>
+      <c r="G232" s="12"/>
+      <c r="H232" s="12"/>
+      <c r="I232" s="12"/>
+      <c r="J232" s="12"/>
+      <c r="K232" s="12"/>
+      <c r="L232" s="12"/>
+      <c r="M232" s="12"/>
+      <c r="N232" s="30"/>
+    </row>
+    <row r="233" spans="1:14">
+      <c r="A233" s="13"/>
+      <c r="B233" s="14"/>
+      <c r="C233" s="15"/>
+      <c r="D233" s="16"/>
+      <c r="E233" s="16"/>
+      <c r="F233" s="16"/>
+      <c r="G233" s="16"/>
+      <c r="H233" s="16"/>
+      <c r="I233" s="16"/>
+      <c r="J233" s="16"/>
+      <c r="K233" s="16"/>
+      <c r="L233" s="16"/>
+      <c r="M233" s="16"/>
+      <c r="N233" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="190">
+  <mergeCells count="234">
     <mergeCell ref="C8:N8"/>
     <mergeCell ref="C14:N14"/>
     <mergeCell ref="F20:N20"/>
@@ -4861,6 +5692,28 @@
     <mergeCell ref="F187:N187"/>
     <mergeCell ref="F188:N188"/>
     <mergeCell ref="F189:N189"/>
+    <mergeCell ref="F192:N192"/>
+    <mergeCell ref="F193:N193"/>
+    <mergeCell ref="F194:N194"/>
+    <mergeCell ref="F195:N195"/>
+    <mergeCell ref="F196:N196"/>
+    <mergeCell ref="F199:N199"/>
+    <mergeCell ref="F200:N200"/>
+    <mergeCell ref="F201:N201"/>
+    <mergeCell ref="F204:N204"/>
+    <mergeCell ref="F207:N207"/>
+    <mergeCell ref="F208:N208"/>
+    <mergeCell ref="F209:N209"/>
+    <mergeCell ref="F210:N210"/>
+    <mergeCell ref="F211:N211"/>
+    <mergeCell ref="F212:N212"/>
+    <mergeCell ref="F215:N215"/>
+    <mergeCell ref="F216:N216"/>
+    <mergeCell ref="F217:N217"/>
+    <mergeCell ref="F218:N218"/>
+    <mergeCell ref="F219:N219"/>
+    <mergeCell ref="C224:N224"/>
+    <mergeCell ref="C230:N230"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A21:A24"/>
@@ -4885,6 +5738,12 @@
     <mergeCell ref="A174:A176"/>
     <mergeCell ref="A180:A182"/>
     <mergeCell ref="A186:A189"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A200:A204"/>
+    <mergeCell ref="A208:A212"/>
+    <mergeCell ref="A216:A221"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A231:A233"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B21:B24"/>
@@ -4909,6 +5768,12 @@
     <mergeCell ref="B174:B176"/>
     <mergeCell ref="B180:B182"/>
     <mergeCell ref="B186:B189"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="B200:B204"/>
+    <mergeCell ref="B208:B212"/>
+    <mergeCell ref="B216:B221"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="B231:B233"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C33:C34"/>
@@ -4921,6 +5786,8 @@
     <mergeCell ref="C123:C124"/>
     <mergeCell ref="C137:C138"/>
     <mergeCell ref="C156:C157"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="C220:C221"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="D33:D34"/>
@@ -4933,6 +5800,8 @@
     <mergeCell ref="D123:D124"/>
     <mergeCell ref="D137:D138"/>
     <mergeCell ref="D156:D157"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="D220:D221"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E33:E34"/>
@@ -4945,6 +5814,8 @@
     <mergeCell ref="E123:E124"/>
     <mergeCell ref="E137:E138"/>
     <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="E220:E221"/>
     <mergeCell ref="D3:K4"/>
     <mergeCell ref="C9:N11"/>
     <mergeCell ref="C15:N17"/>
@@ -4967,6 +5838,10 @@
     <mergeCell ref="C168:N170"/>
     <mergeCell ref="C174:N176"/>
     <mergeCell ref="C180:N182"/>
+    <mergeCell ref="F202:N203"/>
+    <mergeCell ref="F220:N221"/>
+    <mergeCell ref="C225:N227"/>
+    <mergeCell ref="C231:N233"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
